--- a/payments.xlsx
+++ b/payments.xlsx
@@ -12491,15 +12491,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1399"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1385" workbookViewId="0">
-      <selection activeCell="B1399" sqref="B1399"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1387" workbookViewId="0">
+      <selection activeCell="H1399" sqref="H1399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="5" width="35.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>

--- a/payments.xlsx
+++ b/payments.xlsx
@@ -12492,7 +12492,7 @@
   <dimension ref="A1:H1399"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1387" workbookViewId="0">
-      <selection activeCell="H1399" sqref="H1399"/>
+      <selection activeCell="A1403" sqref="A1403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/payments.xlsx
+++ b/payments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Attendee_Report (2)" sheetId="1" r:id="rId1"/>
@@ -12491,8 +12491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1399"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1387" workbookViewId="0">
-      <selection activeCell="A1403" sqref="A1403"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A569" workbookViewId="0">
+      <selection activeCell="E574" sqref="E574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12584,7 +12584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>

--- a/payments.xlsx
+++ b/payments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13849" uniqueCount="6236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13851" uniqueCount="6237">
   <si>
     <t>Name</t>
   </si>
@@ -18728,6 +18728,9 @@
   </si>
   <si>
     <t>Fri Feb 10 19:12:34 IST 2017</t>
+  </si>
+  <si>
+    <t>54900000000S</t>
   </si>
 </sst>
 </file>
@@ -18783,14 +18786,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19073,7 +19076,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20167,8 +20172,8 @@
       <c r="E42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="4">
-        <v>54900000000</v>
+      <c r="F42" s="7" t="s">
+        <v>6236</v>
       </c>
       <c r="G42" s="2">
         <v>800</v>
@@ -20193,8 +20198,8 @@
       <c r="E43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="4">
-        <v>54900000000</v>
+      <c r="F43" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G43" s="2">
         <v>1000</v>
@@ -78964,48 +78969,48 @@
       </c>
     </row>
     <row r="2304" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2304" s="5" t="s">
+      <c r="A2304" s="4" t="s">
         <v>6231</v>
       </c>
-      <c r="B2304" s="5" t="s">
+      <c r="B2304" s="4" t="s">
         <v>6232</v>
       </c>
-      <c r="C2304" s="6">
+      <c r="C2304" s="5">
         <v>7860827125</v>
       </c>
-      <c r="D2304" s="5" t="s">
+      <c r="D2304" s="4" t="s">
         <v>6233</v>
       </c>
-      <c r="E2304" s="5" t="s">
+      <c r="E2304" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F2304" s="5" t="s">
+      <c r="F2304" s="4" t="s">
         <v>6234</v>
       </c>
-      <c r="G2304" s="6">
+      <c r="G2304" s="5">
         <v>1300</v>
       </c>
-      <c r="H2304" s="5" t="s">
+      <c r="H2304" s="4" t="s">
         <v>6235</v>
       </c>
-      <c r="I2304" s="7"/>
-      <c r="J2304" s="7"/>
-      <c r="K2304" s="7"/>
-      <c r="L2304" s="7"/>
-      <c r="M2304" s="7"/>
-      <c r="N2304" s="7"/>
-      <c r="O2304" s="7"/>
-      <c r="P2304" s="7"/>
-      <c r="Q2304" s="7"/>
-      <c r="R2304" s="7"/>
-      <c r="S2304" s="7"/>
-      <c r="T2304" s="7"/>
-      <c r="U2304" s="7"/>
-      <c r="V2304" s="7"/>
-      <c r="W2304" s="7"/>
-      <c r="X2304" s="7"/>
-      <c r="Y2304" s="7"/>
-      <c r="Z2304" s="7"/>
+      <c r="I2304" s="6"/>
+      <c r="J2304" s="6"/>
+      <c r="K2304" s="6"/>
+      <c r="L2304" s="6"/>
+      <c r="M2304" s="6"/>
+      <c r="N2304" s="6"/>
+      <c r="O2304" s="6"/>
+      <c r="P2304" s="6"/>
+      <c r="Q2304" s="6"/>
+      <c r="R2304" s="6"/>
+      <c r="S2304" s="6"/>
+      <c r="T2304" s="6"/>
+      <c r="U2304" s="6"/>
+      <c r="V2304" s="6"/>
+      <c r="W2304" s="6"/>
+      <c r="X2304" s="6"/>
+      <c r="Y2304" s="6"/>
+      <c r="Z2304" s="6"/>
     </row>
     <row r="2305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2305" s="1"/>
